--- a/EXCEL_TRABAJADO/2023-1dl.xlsx
+++ b/EXCEL_TRABAJADO/2023-1dl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gians\Desktop\dev\UNDC_AUTOMATIZACION\EXCEL_TRABAJADO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64D3A84-B58B-45A1-A670-F6E0B2012120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C88672D-3D8B-49EB-BDD7-A769479331D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{AC3D8E4D-96C0-40C7-9193-949C63F87DF0}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AC3D8E4D-96C0-40C7-9193-949C63F87DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="cargas" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="150">
   <si>
     <t>HORAE</t>
   </si>
@@ -461,6 +461,27 @@
   </si>
   <si>
     <t>1-4</t>
+  </si>
+  <si>
+    <t>PROPAGACIÓN DE PLANTAS</t>
+  </si>
+  <si>
+    <t>https://sivireno.undc.edu.pe/index_home.php?s=asistencia_cursos.php&amp;id_dcl=64</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>MECANIZACIÓN AGRÍCOLA</t>
+  </si>
+  <si>
+    <t>https://sivireno.undc.edu.pe/index_home.php?s=asistencia_cursos.php&amp;id_dcl=63</t>
+  </si>
+  <si>
+    <t>GARCIA RUIZ MARIA LUISA</t>
+  </si>
+  <si>
+    <t>1-2</t>
   </si>
 </sst>
 </file>
@@ -547,7 +568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -567,6 +588,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1153,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2442F8-A25A-4C8B-994C-1CDF0A0D4BA8}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,10 +1268,10 @@
         <v>136</v>
       </c>
       <c r="I2" s="11">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J2" s="11">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>16</v>
@@ -1291,10 +1313,10 @@
         <v>136</v>
       </c>
       <c r="I3" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" s="11">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>17</v>
@@ -1336,10 +1358,10 @@
         <v>136</v>
       </c>
       <c r="I4" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J4" s="11">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>11</v>
@@ -1380,11 +1402,11 @@
       <c r="H5" t="s">
         <v>136</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
+      <c r="I5" s="11">
+        <v>5</v>
+      </c>
+      <c r="J5" s="11">
+        <v>16</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -1425,11 +1447,11 @@
       <c r="H6" t="s">
         <v>136</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
+      <c r="I6" s="11">
+        <v>5</v>
+      </c>
+      <c r="J6" s="11">
+        <v>16</v>
       </c>
       <c r="K6" t="s">
         <v>17</v>
@@ -1470,11 +1492,11 @@
       <c r="H7" t="s">
         <v>136</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
+      <c r="I7" s="11">
+        <v>5</v>
+      </c>
+      <c r="J7" s="11">
+        <v>16</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
@@ -1515,11 +1537,11 @@
       <c r="H8" t="s">
         <v>136</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
+      <c r="I8" s="11">
+        <v>5</v>
+      </c>
+      <c r="J8" s="11">
+        <v>16</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
@@ -1560,11 +1582,11 @@
       <c r="H9" t="s">
         <v>136</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>4</v>
+      <c r="I9" s="11">
+        <v>5</v>
+      </c>
+      <c r="J9" s="11">
+        <v>16</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>13</v>
@@ -1605,11 +1627,11 @@
       <c r="H10" t="s">
         <v>136</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>4</v>
+      <c r="I10" s="11">
+        <v>5</v>
+      </c>
+      <c r="J10" s="11">
+        <v>16</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
@@ -1650,11 +1672,11 @@
       <c r="H11" t="s">
         <v>136</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
+      <c r="I11" s="11">
+        <v>5</v>
+      </c>
+      <c r="J11" s="11">
+        <v>16</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>13</v>
@@ -1696,10 +1718,10 @@
         <v>136</v>
       </c>
       <c r="I12" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J12" s="11">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>15</v>
@@ -1742,10 +1764,10 @@
         <v>136</v>
       </c>
       <c r="I13" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J13" s="11">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>15</v>
@@ -1788,10 +1810,10 @@
         <v>136</v>
       </c>
       <c r="I14" s="11">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J14" s="11">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>13</v>
@@ -1834,10 +1856,10 @@
         <v>136</v>
       </c>
       <c r="I15" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J15" s="11">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>13</v>
@@ -1880,10 +1902,10 @@
         <v>136</v>
       </c>
       <c r="I16" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J16" s="11">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>11</v>
@@ -1926,10 +1948,10 @@
         <v>136</v>
       </c>
       <c r="I17" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J17" s="11">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K17" s="11" t="s">
         <v>12</v>
@@ -1971,11 +1993,11 @@
       <c r="H18" t="s">
         <v>136</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>4</v>
+      <c r="I18" s="11">
+        <v>5</v>
+      </c>
+      <c r="J18" s="11">
+        <v>16</v>
       </c>
       <c r="K18" s="11" t="s">
         <v>15</v>
@@ -2016,11 +2038,11 @@
       <c r="H19" t="s">
         <v>136</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>4</v>
+      <c r="I19" s="11">
+        <v>5</v>
+      </c>
+      <c r="J19" s="11">
+        <v>16</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>15</v>
@@ -2061,11 +2083,11 @@
       <c r="H20" t="s">
         <v>136</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>4</v>
+      <c r="I20" s="11">
+        <v>5</v>
+      </c>
+      <c r="J20" s="11">
+        <v>16</v>
       </c>
       <c r="K20" s="11" t="s">
         <v>17</v>
@@ -2106,11 +2128,11 @@
       <c r="H21" t="s">
         <v>136</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>4</v>
+      <c r="I21" s="11">
+        <v>5</v>
+      </c>
+      <c r="J21" s="11">
+        <v>16</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>17</v>
@@ -2151,11 +2173,11 @@
       <c r="H22" t="s">
         <v>136</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>4</v>
+      <c r="I22" s="11">
+        <v>5</v>
+      </c>
+      <c r="J22" s="11">
+        <v>16</v>
       </c>
       <c r="K22" s="11" t="s">
         <v>16</v>
@@ -2195,11 +2217,11 @@
       <c r="H23" t="s">
         <v>136</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>4</v>
+      <c r="I23" s="11">
+        <v>5</v>
+      </c>
+      <c r="J23" s="11">
+        <v>16</v>
       </c>
       <c r="K23" s="11" t="s">
         <v>16</v>
@@ -2240,10 +2262,10 @@
         <v>136</v>
       </c>
       <c r="I24" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J24" s="11">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K24" s="11" t="s">
         <v>13</v>
@@ -2287,10 +2309,10 @@
         <v>136</v>
       </c>
       <c r="I25" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J25" s="11">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K25" s="11" t="s">
         <v>13</v>
@@ -2334,10 +2356,10 @@
         <v>136</v>
       </c>
       <c r="I26" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J26" s="11">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K26" s="11" t="s">
         <v>16</v>
@@ -2379,10 +2401,10 @@
         <v>136</v>
       </c>
       <c r="I27" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J27" s="11">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="K27" s="11" t="s">
         <v>11</v>
@@ -2423,11 +2445,11 @@
       <c r="H28" t="s">
         <v>136</v>
       </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>4</v>
+      <c r="I28" s="11">
+        <v>5</v>
+      </c>
+      <c r="J28" s="11">
+        <v>16</v>
       </c>
       <c r="K28" s="11" t="s">
         <v>11</v>
@@ -2468,11 +2490,11 @@
       <c r="H29" t="s">
         <v>136</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>4</v>
+      <c r="I29" s="11">
+        <v>5</v>
+      </c>
+      <c r="J29" s="11">
+        <v>16</v>
       </c>
       <c r="K29" s="11" t="s">
         <v>16</v>
@@ -2513,11 +2535,11 @@
       <c r="H30" t="s">
         <v>136</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>4</v>
+      <c r="I30" s="11">
+        <v>5</v>
+      </c>
+      <c r="J30" s="11">
+        <v>16</v>
       </c>
       <c r="K30" s="11" t="s">
         <v>16</v>
@@ -2559,11 +2581,11 @@
       <c r="H31" t="s">
         <v>136</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>4</v>
+      <c r="I31" s="11">
+        <v>5</v>
+      </c>
+      <c r="J31" s="11">
+        <v>16</v>
       </c>
       <c r="K31" s="11" t="s">
         <v>12</v>
@@ -2605,11 +2627,11 @@
       <c r="H32" t="s">
         <v>136</v>
       </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>4</v>
+      <c r="I32" s="11">
+        <v>5</v>
+      </c>
+      <c r="J32" s="11">
+        <v>16</v>
       </c>
       <c r="K32" s="11" t="s">
         <v>15</v>
@@ -2649,11 +2671,11 @@
       <c r="H33" t="s">
         <v>136</v>
       </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>4</v>
+      <c r="I33" s="11">
+        <v>5</v>
+      </c>
+      <c r="J33" s="11">
+        <v>16</v>
       </c>
       <c r="K33" s="11" t="s">
         <v>15</v>
@@ -2693,11 +2715,11 @@
       <c r="H34" t="s">
         <v>136</v>
       </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>4</v>
+      <c r="I34" s="11">
+        <v>5</v>
+      </c>
+      <c r="J34" s="11">
+        <v>16</v>
       </c>
       <c r="K34" s="11" t="s">
         <v>15</v>
@@ -2710,6 +2732,94 @@
       </c>
       <c r="N34" s="8" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35">
+        <v>48</v>
+      </c>
+      <c r="F35" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="H35" t="s">
+        <v>145</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>16</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0.65625</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0.71875</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36">
+        <v>22</v>
+      </c>
+      <c r="F36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="H36" t="s">
+        <v>145</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <v>16</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0.65625</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0.71875</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2734,9 +2844,10 @@
     <hyperlink ref="G19" r:id="rId18" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_cursos.php&amp;id_dcl=12" xr:uid="{9422FABF-58D6-436F-A0C1-C9500E917A06}"/>
     <hyperlink ref="G20" r:id="rId19" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_cursos.php&amp;id_dcl=7" xr:uid="{B2DD25FE-DBFC-4ECF-8716-83946099C0AC}"/>
     <hyperlink ref="G21" r:id="rId20" display="https://sivireno.undc.edu.pe/index_home.php?s=asistencia_cursos.php&amp;id_dcl=8" xr:uid="{FC746BE8-4CCF-4C04-B6F8-CF1C3E425C42}"/>
+    <hyperlink ref="G35" r:id="rId21" xr:uid="{A2DCD469-6562-456A-9FF9-6AC5DE329ECF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
